--- a/dist/document/dest/2020/10/doctors/nht.xlsx
+++ b/dist/document/dest/2020/10/doctors/nht.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>1590</v>
       </c>
-      <c r="C2" s="1">
-        <v>9142500</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>795</v>
       </c>
-      <c r="C3" s="1">
-        <v>5203275</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>30</v>
       </c>
-      <c r="C4" s="1">
-        <v>9000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>90</v>
       </c>
-      <c r="C5" s="1">
-        <v>315000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>16</v>
       </c>
-      <c r="C6" s="1">
-        <v>355200</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>1020</v>
       </c>
-      <c r="C7" s="1">
-        <v>2162400</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>360</v>
       </c>
-      <c r="C8" s="1">
-        <v>91440</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
-        <v>3150000</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>1050000</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -504,7 +477,7 @@
         <v>3905</v>
       </c>
       <c r="C11" s="1">
-        <v>21478815</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/nht.xlsx
+++ b/dist/document/dest/2020/10/doctors/nht.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,87 +402,147 @@
         <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>1590</v>
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5750000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>795</v>
+        <v>840</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4830000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Doaspin 81mg (Acetylsalicylic)</v>
+        <v>Augmentin 1g (Amoxicillin+ kali clavulanate)</v>
       </c>
       <c r="B4" s="1">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>274440</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Enat (Vitamin E 400)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>90</v>
+        <v>570</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3730650</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Eumovate PM</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>16</v>
+        <v>784</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5131280</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Eumovate PM</v>
       </c>
       <c r="B7" s="1">
-        <v>1020</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>199800</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Rutin-Vitamin C (Rutin, vitamin C)</v>
+        <v xml:space="preserve">Mg B6 </v>
       </c>
       <c r="B8" s="1">
-        <v>360</v>
+        <v>900</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1908000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>VỚ JOBST RELIEF ĐÙI (L)</v>
+        <v xml:space="preserve">Mg B6 </v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>820</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1738400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v xml:space="preserve">VỚ JOBST RELIEF ĐÙI (M) </v>
+        <v>Rutin-Vitamin C (Rutin, vitamin C)</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>870</v>
+      </c>
+      <c r="C10" s="1">
+        <v>220980</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
+        <v>Rutin-Vitamin C (Rutin, vitamin C)</v>
+      </c>
+      <c r="B11" s="1">
+        <v>444</v>
+      </c>
+      <c r="C11" s="1">
+        <v>112776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v xml:space="preserve">VỚ JOBST RELIEF ĐÙI (M) </v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5250000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v xml:space="preserve">VỚ JOBST RELIEF ĐÙI (S) </v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B11" s="1">
-        <v>3905</v>
-      </c>
-      <c r="C11" s="1">
-        <v>NaN</v>
+      <c r="B14" s="1">
+        <v>6255</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30196326</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
   </ignoredErrors>
 </worksheet>
 </file>